--- a/6210742521 private work/BAT.xlsx
+++ b/6210742521 private work/BAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafha\Desktop\2-2564\Sf332\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EE2CDFE-01A6-44C9-B314-622D36AEAC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1C9FCB-DFEA-4A02-8A30-638902DD683C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{55109237-C92C-4D27-9200-0C92DDBF1FAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{55109237-C92C-4D27-9200-0C92DDBF1FAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="65">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -206,6 +206,30 @@
   </si>
   <si>
     <t>ทดสอบการลงทะเบียนด้วยชื่อที่เป็นภาษาไทย</t>
+  </si>
+  <si>
+    <t>ทดสอบการลงทะเบียนโดยกรอก email ที่ไม่ใช่ gmail</t>
+  </si>
+  <si>
+    <t>email = soft-en@dome.tu.ac.th</t>
+  </si>
+  <si>
+    <t>กรอก email ด้วย  soft-en@dome.tu.ac.th password และ username</t>
+  </si>
+  <si>
+    <t>ระบบจะแจ้งเตือนว่า "ยืนยันการใช้ email นี้"</t>
+  </si>
+  <si>
+    <t>SF04</t>
+  </si>
+  <si>
+    <t>SF05</t>
+  </si>
+  <si>
+    <t>ทดสอบการเพิ่ม Task โดยไม่กรอกแค่ช่องว่างและเว้นบรรทัด</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -441,26 +465,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -468,114 +575,40 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -893,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB70CA0-4262-4B5C-9974-95A031557604}">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117:C117"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="P163" sqref="P163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -915,222 +948,222 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="7" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="23">
+      <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="23">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="23">
+      <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="23">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="23">
+      <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="23">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="9">
         <v>3</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="23">
+      <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="23">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="9">
         <v>4</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1"/>
@@ -1146,148 +1179,148 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="42" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="46"/>
+      <c r="F15" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="36" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="47"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
-      <c r="A17" s="23">
+      <c r="A17" s="9">
         <v>1</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="A18" s="23">
+      <c r="A18" s="9">
         <v>2</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
-      <c r="A19" s="23">
+      <c r="A19" s="9">
         <v>3</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="24" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A20" s="23">
+      <c r="A20" s="9">
         <v>4</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="24" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="A21" s="23">
+      <c r="A21" s="9">
         <v>5</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1"/>
@@ -1329,222 +1362,222 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7" t="s">
+      <c r="G27" s="19"/>
+      <c r="H27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="8" t="s">
+      <c r="I27" s="26"/>
+      <c r="J27" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="7" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="7" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="23">
+      <c r="A32" s="9">
         <v>1</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="23">
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="9">
         <v>1</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="23">
+      <c r="A33" s="9">
         <v>2</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="23">
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="9">
         <v>2</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="23">
+      <c r="A34" s="9">
         <v>3</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="23">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="9">
         <v>3</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="6"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="23">
+      <c r="A35" s="9">
         <v>4</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="23">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="9">
         <v>4</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -1560,154 +1593,154 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29" t="s">
+      <c r="C39" s="22"/>
+      <c r="D39" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="27" t="s">
+      <c r="E39" s="25"/>
+      <c r="F39" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="27" t="s">
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="28"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="23">
+      <c r="A41" s="9">
         <v>1</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="33" t="s">
+      <c r="C41" s="20"/>
+      <c r="D41" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="6"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="19"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="23">
+      <c r="A42" s="9">
         <v>2</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="33" t="s">
+      <c r="C42" s="16"/>
+      <c r="D42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="6"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="23">
+      <c r="A43" s="9">
         <v>3</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="16"/>
+      <c r="D43" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="6"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="19"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="23">
+      <c r="A44" s="9">
         <v>4</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="33" t="s">
+      <c r="C44" s="16"/>
+      <c r="D44" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="6"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="19"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="23">
+      <c r="A45" s="9">
         <v>5</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="33" t="s">
+      <c r="C45" s="16"/>
+      <c r="D45" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="6"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="19"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="23">
+      <c r="A46" s="9">
         <v>6</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="33" t="s">
+      <c r="C46" s="16"/>
+      <c r="D46" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="6"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="19"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1"/>
@@ -1749,222 +1782,222 @@
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="5" t="s">
+      <c r="E50" s="26"/>
+      <c r="F50" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="6"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="19"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="5" t="s">
+      <c r="E51" s="26"/>
+      <c r="F51" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="7" t="s">
+      <c r="G51" s="19"/>
+      <c r="H51" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="8" t="s">
+      <c r="I51" s="26"/>
+      <c r="J51" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K51" s="9"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="7" t="s">
+      <c r="B53" s="29"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="7" t="s">
+      <c r="E53" s="29"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="21" t="s">
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="23">
+      <c r="A56" s="9">
         <v>1</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="23">
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="9">
         <v>1</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="G56" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="6"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="19"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="23">
+      <c r="A57" s="9">
         <v>2</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="23">
+      <c r="C57" s="18"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="9">
         <v>2</v>
       </c>
-      <c r="G57" s="24" t="s">
+      <c r="G57" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="6"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="19"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="23">
+      <c r="A58" s="9">
         <v>3</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="23">
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="9">
         <v>3</v>
       </c>
-      <c r="G58" s="24"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="6"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="19"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="23">
+      <c r="A59" s="9">
         <v>4</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="23">
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="9">
         <v>4</v>
       </c>
-      <c r="G59" s="24"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="6"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="19"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1"/>
@@ -1980,154 +2013,154 @@
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="29" t="s">
+      <c r="C63" s="22"/>
+      <c r="D63" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="27" t="s">
+      <c r="E63" s="25"/>
+      <c r="F63" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="27" t="s">
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="28"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="23">
+      <c r="A65" s="9">
         <v>1</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="33" t="s">
+      <c r="C65" s="20"/>
+      <c r="D65" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="33"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="6"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="19"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="23">
+      <c r="A66" s="9">
         <v>2</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="33" t="s">
+      <c r="C66" s="16"/>
+      <c r="D66" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E66" s="33"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="6"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="19"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="23">
+      <c r="A67" s="9">
         <v>3</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="33" t="s">
+      <c r="C67" s="16"/>
+      <c r="D67" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="33"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="6"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="19"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="23">
+      <c r="A68" s="9">
         <v>4</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="33" t="s">
+      <c r="C68" s="16"/>
+      <c r="D68" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E68" s="33"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="6"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="19"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="23">
+      <c r="A69" s="9">
         <v>5</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="33" t="s">
+      <c r="C69" s="16"/>
+      <c r="D69" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="33"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="6"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="19"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="23">
+      <c r="A70" s="9">
         <v>6</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="33" t="s">
+      <c r="C70" s="16"/>
+      <c r="D70" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="33"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="6"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="19"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1"/>
@@ -2143,222 +2176,222 @@
       <c r="K71" s="1"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="5" t="s">
+      <c r="E74" s="26"/>
+      <c r="F74" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="6"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="19"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="4" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="5" t="s">
+      <c r="E75" s="26"/>
+      <c r="F75" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="7" t="s">
+      <c r="G75" s="19"/>
+      <c r="H75" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="8" t="s">
+      <c r="I75" s="26"/>
+      <c r="J75" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K75" s="9"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="7" t="s">
+      <c r="B77" s="29"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="7" t="s">
+      <c r="E77" s="29"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I77" s="11"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="21" t="s">
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="23">
+      <c r="A80" s="9">
         <v>1</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="23">
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="9">
         <v>1</v>
       </c>
-      <c r="G80" s="24" t="s">
+      <c r="G80" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="6"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="19"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="23">
+      <c r="A81" s="9">
         <v>2</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="23">
+      <c r="C81" s="18"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="9">
         <v>2</v>
       </c>
-      <c r="G81" s="24" t="s">
+      <c r="G81" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="6"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="19"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="23">
+      <c r="A82" s="9">
         <v>3</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="23">
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="9">
         <v>3</v>
       </c>
-      <c r="G82" s="24"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="6"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="19"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="23">
+      <c r="A83" s="9">
         <v>4</v>
       </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="23">
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="9">
         <v>4</v>
       </c>
-      <c r="G83" s="24"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="6"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="19"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1"/>
@@ -2374,154 +2407,154 @@
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="29" t="s">
+      <c r="C87" s="22"/>
+      <c r="D87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E87" s="30"/>
-      <c r="F87" s="27" t="s">
+      <c r="E87" s="25"/>
+      <c r="F87" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="27" t="s">
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J87" s="31"/>
-      <c r="K87" s="31"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="28"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="31"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="23">
+      <c r="A89" s="9">
         <v>1</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="34"/>
-      <c r="D89" s="33" t="s">
+      <c r="C89" s="20"/>
+      <c r="D89" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E89" s="33"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="6"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="19"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="23">
+      <c r="A90" s="9">
         <v>2</v>
       </c>
-      <c r="B90" s="33" t="s">
+      <c r="B90" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="35"/>
-      <c r="D90" s="33" t="s">
+      <c r="C90" s="16"/>
+      <c r="D90" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E90" s="33"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="6"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="19"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="23">
+      <c r="A91" s="9">
         <v>3</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="33" t="s">
+      <c r="C91" s="16"/>
+      <c r="D91" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E91" s="33"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="6"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="19"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="23">
+      <c r="A92" s="9">
         <v>4</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="33" t="s">
+      <c r="C92" s="16"/>
+      <c r="D92" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E92" s="33"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="6"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="19"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="23">
+      <c r="A93" s="9">
         <v>5</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C93" s="35"/>
-      <c r="D93" s="33" t="s">
+      <c r="C93" s="16"/>
+      <c r="D93" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="33"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="6"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="19"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="23">
+      <c r="A94" s="9">
         <v>6</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C94" s="35"/>
-      <c r="D94" s="33" t="s">
+      <c r="C94" s="16"/>
+      <c r="D94" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E94" s="33"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="6"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="19"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1"/>
@@ -2563,222 +2596,222 @@
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="4" t="s">
+      <c r="B98" s="26"/>
+      <c r="C98" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="5" t="s">
+      <c r="E98" s="26"/>
+      <c r="F98" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="6"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="19"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="4" t="s">
+      <c r="B99" s="26"/>
+      <c r="C99" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="5" t="s">
+      <c r="E99" s="26"/>
+      <c r="F99" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G99" s="6"/>
-      <c r="H99" s="7" t="s">
+      <c r="G99" s="19"/>
+      <c r="H99" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I99" s="3"/>
-      <c r="J99" s="8" t="s">
+      <c r="I99" s="26"/>
+      <c r="J99" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K99" s="9"/>
+      <c r="K99" s="38"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="7" t="s">
+      <c r="B101" s="29"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="11"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="7" t="s">
+      <c r="E101" s="29"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I101" s="11"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="21" t="s">
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="22"/>
-      <c r="K103" s="22"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="23">
+      <c r="A104" s="9">
         <v>1</v>
       </c>
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="23">
+      <c r="C104" s="18"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="9">
         <v>1</v>
       </c>
-      <c r="G104" s="24" t="s">
+      <c r="G104" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="6"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="19"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="23">
+      <c r="A105" s="9">
         <v>2</v>
       </c>
-      <c r="B105" s="24" t="s">
+      <c r="B105" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="23">
+      <c r="C105" s="18"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="9">
         <v>2</v>
       </c>
-      <c r="G105" s="24" t="s">
+      <c r="G105" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="6"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="19"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="23">
+      <c r="A106" s="9">
         <v>3</v>
       </c>
-      <c r="B106" s="24"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="23">
+      <c r="B106" s="17"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="9">
         <v>3</v>
       </c>
-      <c r="G106" s="24"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="6"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="19"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="23">
+      <c r="A107" s="9">
         <v>4</v>
       </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="23">
+      <c r="B107" s="17"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="9">
         <v>4</v>
       </c>
-      <c r="G107" s="24"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="6"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="19"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B109" s="26" t="s">
+      <c r="B109" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="1"/>
@@ -2794,157 +2827,1261 @@
       <c r="K110" s="1"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="27" t="s">
+      <c r="A111" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B111" s="27" t="s">
+      <c r="B111" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C111" s="28"/>
-      <c r="D111" s="29" t="s">
+      <c r="C111" s="22"/>
+      <c r="D111" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E111" s="30"/>
-      <c r="F111" s="27" t="s">
+      <c r="E111" s="25"/>
+      <c r="F111" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G111" s="31"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="27" t="s">
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J111" s="31"/>
-      <c r="K111" s="31"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="27"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="28"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
-      <c r="K112" s="31"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="23">
+      <c r="A113" s="9">
         <v>1</v>
       </c>
-      <c r="B113" s="33" t="s">
+      <c r="B113" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="34"/>
-      <c r="D113" s="33" t="s">
+      <c r="C113" s="20"/>
+      <c r="D113" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E113" s="33"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="6"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="19"/>
     </row>
     <row r="114" spans="1:11" ht="46.5" customHeight="1">
-      <c r="A114" s="23">
+      <c r="A114" s="9">
         <v>2</v>
       </c>
-      <c r="B114" s="33" t="s">
+      <c r="B114" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C114" s="35"/>
-      <c r="D114" s="33" t="s">
+      <c r="C114" s="16"/>
+      <c r="D114" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E114" s="33"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="6"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="19"/>
     </row>
     <row r="115" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A115" s="23">
+      <c r="A115" s="9">
         <v>3</v>
       </c>
-      <c r="B115" s="33" t="s">
+      <c r="B115" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C115" s="35"/>
-      <c r="D115" s="33" t="s">
+      <c r="C115" s="16"/>
+      <c r="D115" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E115" s="33"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="6"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="19"/>
     </row>
     <row r="116" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A116" s="23">
+      <c r="A116" s="9">
         <v>4</v>
       </c>
-      <c r="B116" s="33" t="s">
+      <c r="B116" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C116" s="35"/>
-      <c r="D116" s="33" t="s">
+      <c r="C116" s="16"/>
+      <c r="D116" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E116" s="33"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="6"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="19"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="23">
+      <c r="A117" s="9">
         <v>5</v>
       </c>
-      <c r="B117" s="33" t="s">
+      <c r="B117" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C117" s="35"/>
-      <c r="D117" s="33" t="s">
+      <c r="C117" s="16"/>
+      <c r="D117" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E117" s="33"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="6"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="19"/>
     </row>
     <row r="118" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A118" s="23">
+      <c r="A118" s="9">
         <v>6</v>
       </c>
-      <c r="B118" s="33" t="s">
+      <c r="B118" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="35"/>
-      <c r="D118" s="33" t="s">
+      <c r="C118" s="16"/>
+      <c r="D118" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E118" s="33"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="6"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="19"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="26"/>
+      <c r="C122" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D122" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E122" s="26"/>
+      <c r="F122" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="19"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="26"/>
+      <c r="C123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="26"/>
+      <c r="F123" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="19"/>
+      <c r="H123" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I123" s="26"/>
+      <c r="J123" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K123" s="38"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="29"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="29"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" s="29"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="36"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="36"/>
+      <c r="K127" s="36"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="9">
+        <v>1</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="18"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="9">
+        <v>1</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="19"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="9">
+        <v>2</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="18"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="9">
+        <v>2</v>
+      </c>
+      <c r="G129" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="19"/>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="9">
+        <v>3</v>
+      </c>
+      <c r="B130" s="17"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="9">
+        <v>3</v>
+      </c>
+      <c r="G130" s="17"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="9">
+        <v>4</v>
+      </c>
+      <c r="B131" s="17"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="9">
+        <v>4</v>
+      </c>
+      <c r="G131" s="17"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="19"/>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" s="22"/>
+      <c r="D135" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E135" s="25"/>
+      <c r="F135" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="22"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="27"/>
+      <c r="K136" s="27"/>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="9">
+        <v>1</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C137" s="20"/>
+      <c r="D137" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" s="15"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="19"/>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="9">
+        <v>2</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C138" s="16"/>
+      <c r="D138" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E138" s="15"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="19"/>
+    </row>
+    <row r="139" spans="1:11" ht="44.25" customHeight="1">
+      <c r="A139" s="9">
+        <v>3</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" s="16"/>
+      <c r="D139" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E139" s="15"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="19"/>
+    </row>
+    <row r="140" spans="1:11" ht="32.25" customHeight="1">
+      <c r="A140" s="9">
+        <v>4</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" s="16"/>
+      <c r="D140" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E140" s="15"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="19"/>
+    </row>
+    <row r="141" spans="1:11" ht="30" customHeight="1">
+      <c r="A141" s="9">
+        <v>5</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C141" s="16"/>
+      <c r="D141" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E141" s="15"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="19"/>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="9"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="19"/>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="26"/>
+      <c r="C146" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D146" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146" s="26"/>
+      <c r="F146" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="19"/>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="26"/>
+      <c r="C147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="26"/>
+      <c r="F147" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="19"/>
+      <c r="H147" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I147" s="26"/>
+      <c r="J147" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="K147" s="38"/>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="29"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="29"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I149" s="29"/>
+      <c r="J149" s="32"/>
+      <c r="K149" s="32"/>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" s="36"/>
+      <c r="I151" s="36"/>
+      <c r="J151" s="36"/>
+      <c r="K151" s="36"/>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="9">
+        <v>1</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" s="18"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="9">
+        <v>1</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="19"/>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="9">
+        <v>2</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="18"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="9">
+        <v>2</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="19"/>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="9">
+        <v>3</v>
+      </c>
+      <c r="B154" s="17"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="9">
+        <v>3</v>
+      </c>
+      <c r="G154" s="17"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="19"/>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="9">
+        <v>4</v>
+      </c>
+      <c r="B155" s="17"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="9">
+        <v>4</v>
+      </c>
+      <c r="G155" s="17"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="19"/>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" s="22"/>
+      <c r="D159" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E159" s="25"/>
+      <c r="F159" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J159" s="27"/>
+      <c r="K159" s="27"/>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="22"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
+      <c r="J160" s="27"/>
+      <c r="K160" s="27"/>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="9">
+        <v>1</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161" s="20"/>
+      <c r="D161" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E161" s="15"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="19"/>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="9">
+        <v>2</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C162" s="16"/>
+      <c r="D162" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E162" s="15"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="19"/>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="9">
+        <v>3</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C163" s="16"/>
+      <c r="D163" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E163" s="15"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="19"/>
+    </row>
+    <row r="164" spans="1:11" ht="30" customHeight="1">
+      <c r="A164" s="9">
+        <v>4</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C164" s="16"/>
+      <c r="D164" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E164" s="15"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="18"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="19"/>
+    </row>
+    <row r="165" spans="1:11" ht="28.5" customHeight="1">
+      <c r="A165" s="9">
+        <v>5</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C165" s="16"/>
+      <c r="D165" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E165" s="15"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="19"/>
+    </row>
+    <row r="166" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A166" s="9">
+        <v>6</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C166" s="16"/>
+      <c r="D166" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E166" s="15"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="18"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="18"/>
+      <c r="K166" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="260">
+  <mergeCells count="364">
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="I165:K165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="F166:H166"/>
+    <mergeCell ref="I166:K166"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="I162:K162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="F163:H163"/>
+    <mergeCell ref="I163:K163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="F164:H164"/>
+    <mergeCell ref="I164:K164"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="B159:C160"/>
+    <mergeCell ref="D159:E160"/>
+    <mergeCell ref="F159:H160"/>
+    <mergeCell ref="I159:K160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="I161:K161"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="G151:K151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="G152:K152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="G153:K153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="G154:K154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="G155:K155"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:K146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="I140:K140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="I141:K141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="I142:K142"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="I137:K137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="I138:K138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="I139:K139"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="G129:K129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="G130:K130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="G131:K131"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:C136"/>
+    <mergeCell ref="D135:E136"/>
+    <mergeCell ref="F135:H136"/>
+    <mergeCell ref="I135:K136"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="G127:K127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="G128:K128"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="F39:H40"/>
+    <mergeCell ref="I39:K40"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="F63:H64"/>
+    <mergeCell ref="I63:K64"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:C88"/>
+    <mergeCell ref="D87:E88"/>
+    <mergeCell ref="F87:H88"/>
+    <mergeCell ref="I87:K88"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="I91:K91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="G103:K103"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:K98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:C112"/>
+    <mergeCell ref="D111:E112"/>
+    <mergeCell ref="F111:H112"/>
+    <mergeCell ref="I111:K112"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="G105:K105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="I113:K113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="G107:K107"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="F117:H117"/>
@@ -2961,250 +4098,6 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="F116:H116"/>
     <mergeCell ref="I116:K116"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="I113:K113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="I114:K114"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:C112"/>
-    <mergeCell ref="D111:E112"/>
-    <mergeCell ref="F111:H112"/>
-    <mergeCell ref="I111:K112"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="G105:K105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="G103:K103"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:K98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="I93:K93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="I94:K94"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="I91:K91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:C88"/>
-    <mergeCell ref="D87:E88"/>
-    <mergeCell ref="F87:H88"/>
-    <mergeCell ref="I87:K88"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="D63:E64"/>
-    <mergeCell ref="F63:H64"/>
-    <mergeCell ref="I63:K64"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="F39:H40"/>
-    <mergeCell ref="I39:K40"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="I89:K89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="I90:K90"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
